--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Google Drive\שנה ה\סמסטר ב\למידה עם חיזוקים\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4630A7D5-9049-4A54-8A19-2EA6016355D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F372C3E0-A019-461B-AFFC-4ACAFB971742}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{56B77910-A0B7-4405-BDAB-DCD6D203B170}"/>
   </bookViews>
@@ -3692,7 +3692,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Google Drive\שנה ה\סמסטר ב\למידה עם חיזוקים\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\PycharmProjects\Deep-Reinforcment-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4630A7D5-9049-4A54-8A19-2EA6016355D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590E1C3-64D0-41A5-90E0-5BC3F2DADEB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{56B77910-A0B7-4405-BDAB-DCD6D203B170}"/>
+    <workbookView xWindow="465" yWindow="885" windowWidth="28770" windowHeight="15450" activeTab="4" xr2:uid="{56B77910-A0B7-4405-BDAB-DCD6D203B170}"/>
   </bookViews>
   <sheets>
     <sheet name="North" sheetId="1" r:id="rId1"/>
@@ -3692,23 +3692,23 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3727,13 +3727,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
+        <v>-0.84000000000000008</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C3" s="4">
         <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-0.84000000000000008</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-0.14000000000000001</v>
       </c>
       <c r="D3" s="4">
         <v>-0.14000000000000001</v>
@@ -3744,13 +3744,13 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="B4" s="4">
+        <v>-0.84000000000000008</v>
+      </c>
+      <c r="C4" s="4">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>-0.84000000000000008</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3758,13 +3758,13 @@
         <v>-4.0000000000000008E-2</v>
       </c>
       <c r="B5" s="4">
-        <v>-4.0000000000000008E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="C5" s="4">
         <v>-4.0000000000000008E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>-0.04</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3772,24 +3772,24 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="B6" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="C6" s="4">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>-0.84000000000000008</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-0.04</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C7" s="4">
         <v>-0.84000000000000008</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-0.14000000000000001</v>
       </c>
       <c r="D7" s="4">
         <v>-0.14000000000000001</v>
@@ -3811,13 +3811,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
+        <v>-0.84000000000000008</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C9" s="4">
         <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-0.84000000000000008</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-0.14000000000000001</v>
       </c>
       <c r="D9" s="4">
         <v>-0.14000000000000001</v>
@@ -3828,13 +3828,13 @@
         <v>0.06</v>
       </c>
       <c r="B10" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.06</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3842,13 +3842,13 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="B11" s="4">
+        <v>-0.84000000000000008</v>
+      </c>
+      <c r="C11" s="4">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-0.84000000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3856,10 +3856,10 @@
         <v>-0.24000000000000002</v>
       </c>
       <c r="B12" s="4">
+        <v>-0.84000000000000008</v>
+      </c>
+      <c r="C12" s="4">
         <v>-0.24000000000000002</v>
-      </c>
-      <c r="C12" s="4">
-        <v>-0.84000000000000008</v>
       </c>
       <c r="D12" s="4">
         <v>-0.84000000000000008</v>
@@ -3870,13 +3870,13 @@
         <v>-4.0000000000000008E-2</v>
       </c>
       <c r="B13" s="4">
-        <v>-4.0000000000000008E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="C13" s="4">
         <v>-4.0000000000000008E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>-0.04</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3923,13 +3923,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
+        <v>-0.84000000000000008</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="C17" s="4">
         <v>-4.0000000000000008E-2</v>
-      </c>
-      <c r="B17" s="4">
-        <v>-0.84000000000000008</v>
-      </c>
-      <c r="C17" s="4">
-        <v>-0.14000000000000001</v>
       </c>
       <c r="D17" s="4">
         <v>-0.14000000000000001</v>
